--- a/result/EDINET.xlsx
+++ b/result/EDINET.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="BS" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -15,6 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -52,11 +55,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -351,1461 +355,1706 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>item</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>currency</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>株式会社京都フィナンシャルグループ</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>株式会社三菱ＵＦＪフィナンシャル・グループ</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>株式会社三井住友フィナンシャルグループ</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>現金及び預金</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="C2">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D2">
         <v>85</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>3531</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>5303</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>前払費用</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="D3">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="E3">
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>21</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>未収入金</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="D4">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="E4">
         <v>86</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>未収収益</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="E5">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="F5">
         <v>921</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>未収還付法人税等</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="E6">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="F6">
         <v>155</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>１年内回収予定の関係会社長期貸付金</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="D7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="E7">
         <v>9064</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>11770</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>その他、流動資産</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="C8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D8">
         <v>0</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>916</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>108</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>貸倒引当金、流動資産、一括控除</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="D9">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="E9">
         <v>-1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>流動資産</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="C10">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D10">
         <v>185</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>13596</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>18277</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>建物（純額）</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="D11">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="E11">
         <v>1</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>360</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>土地</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="E12">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="F12">
         <v>315</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>工具、器具及び備品（純額）</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="E13">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="F13">
         <v>3</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>建設仮勘定</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>円</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>リース資産（純額）、有形固定資産</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="D15">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="E15">
         <v>7</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>有形固定資産</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="C16">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D16">
         <v>0</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>52</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>678</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>商標権</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="D17">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="E17">
         <v>1</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>ソフトウエア</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="C18">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D18">
         <v>0</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>178</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>162</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>その他、無形固定資産</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="D19">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="E19">
         <v>107</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>無形固定資産</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="C20">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D20">
         <v>0</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>285</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>162</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>投資有価証券</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="E21">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="F21">
         <v>1078</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>関係会社株式</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="C22">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D22">
         <v>4673</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>93984</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>70890</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>関係会社長期貸付金</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="D23">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="E23">
         <v>112995</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>112395</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>長期前払費用</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="E24">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="F24">
         <v>7</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>繰延税金資産</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="C25">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D25">
         <v>0</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>249</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>その他、投資その他の資産</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="D26">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="E26">
         <v>0</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>27</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>貸倒引当金、投資その他の資産、一括控除</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="D27">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="E27">
         <v>-11</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>投資その他の資産</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="C28">
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D28">
         <v>4674</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>207217</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>184397</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>固定資産</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="C29">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D29">
         <v>4674</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>207554</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>185237</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>資産</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="C30">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D30">
         <v>4859</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>221150</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>203514</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>短期借入金</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="D31">
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="E31">
         <v>11280</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>16796</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>１年内償還予定の社債</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="D32">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="E32">
         <v>8846</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>12386</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>１年内返済予定の長期借入金</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="D33">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="E33">
         <v>220</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>80</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>リース債務、流動負債</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="D34">
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="E34">
         <v>2</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>未払金</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="D35">
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="E35">
         <v>131</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>13</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>未払費用</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="C36">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D36">
         <v>1</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>807</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>922</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>未払法人税等</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="C37">
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D37">
         <v>0</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>3</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>未払事業所税</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="E38">
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="F38">
         <v>1</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>預り金</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="C39">
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D39">
         <v>0</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>22</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>賞与引当金</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="D40">
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="E40">
         <v>10</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>12</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>役員賞与引当金</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="D41">
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="E41">
         <v>5</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>6</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>その他、流動負債</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="C42">
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D42">
         <v>0</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>202</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>60</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>流動負債</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="C43">
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D43">
         <v>2</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>21527</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>30277</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>社債</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="D44">
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="E44">
         <v>107283</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>105054</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>長期借入金</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="D45">
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="E45">
         <v>5710</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>4251</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>リース債務、固定負債</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="D46">
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="E46">
         <v>5</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>長期未払法人税等</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="D47">
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="E47">
         <v>22</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>繰延税金負債</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="E48">
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="F48">
         <v>72</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>その他、固定負債</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="E49">
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="F49">
         <v>11</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>固定負債</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="D50">
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="E50">
         <v>113043</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>109388</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>負債</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="C51">
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D51">
         <v>2</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>134570</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>139665</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>資本金</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="C52">
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D52">
         <v>400</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>21415</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>23460</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>資本準備金</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="C53">
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D53">
         <v>100</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>21415</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>15674</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>その他資本剰余金</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="C54">
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D54">
         <v>4386</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>資本剰余金</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="C55">
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D55">
         <v>4486</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>21415</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>15674</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>別途積立金</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="D56">
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="E56">
         <v>1500</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>304</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="A57" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>繰越利益剰余金</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="C57">
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D57">
         <v>221</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>50351</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>24598</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="A58" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>利益剰余金</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="C58">
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D58">
         <v>221</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>51851</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>24902</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>自己株式</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="C59">
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D59">
         <v>-252</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>-7260</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>-385</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>株主資本</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="C60">
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D60">
         <v>4855</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>87421</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>63651</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>繰延ヘッジ損益</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="D61">
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="E61">
         <v>-841</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B62" t="inlineStr">
         <is>
           <t>評価・換算差額等</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="D62">
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="E62">
         <v>-841</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>190</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t>建物</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="C63">
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D63">
         <v>0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="A64" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B64" t="inlineStr">
         <is>
           <t>未払消費税等</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="C64">
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D64">
         <v>0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="A65" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t>新株予約権</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="C65">
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D65">
         <v>2</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>8</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="A66" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t>純資産</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="C66">
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D66">
         <v>4857</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>86580</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>63849</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="A67" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>負債純資産</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="C67">
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D67">
         <v>4859</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>221150</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>203514</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="A68" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t>純資産1</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="C68">
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D68">
         <v>400</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>21415</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>23460</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="A69" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B69" t="inlineStr">
         <is>
           <t>純資産2</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="C69">
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D69">
         <v>100</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>21415</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>15674</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="A70" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B70" t="inlineStr">
         <is>
           <t>純資産3</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="C70">
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D70">
         <v>4386</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="A71" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B71" t="inlineStr">
         <is>
           <t>純資産4</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="D71">
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="E71">
         <v>1500</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>304</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="A72" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B72" t="inlineStr">
         <is>
           <t>純資産5</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="C72">
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D72">
         <v>221</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <v>50351</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>24598</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="A73" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B73" t="inlineStr">
         <is>
           <t>純資産6</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="C73">
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D73">
         <v>-252</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>-7260</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>-385</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="A74" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B74" t="inlineStr">
         <is>
           <t>純資産7</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="C74">
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D74">
         <v>4855</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>87421</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>63651</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="A75" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B75" t="inlineStr">
         <is>
           <t>純資産8</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="D75">
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="E75">
         <v>-841</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="A76" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B76" t="inlineStr">
         <is>
           <t>純資産9</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="C76">
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D76">
         <v>4486</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>15674</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="A77" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B77" t="inlineStr">
         <is>
           <t>純資産10</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="C77">
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D77">
         <v>221</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>24902</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="A78" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B78" t="inlineStr">
         <is>
           <t>純資産11</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="C78">
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D78">
         <v>2</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>8</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="A79" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B79" t="inlineStr">
         <is>
           <t>純資産12</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="E79">
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="F79">
         <v>190</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="A80" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B80" t="inlineStr">
         <is>
           <t>その他有価証券評価差額金</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="E80">
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="F80">
         <v>190</v>
       </c>
     </row>

--- a/result/EDINET.xlsx
+++ b/result/EDINET.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:AF187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -382,17 +382,147 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>株式会社三菱ＵＦＪフィナンシャル・グループ</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>株式会社　りそなホールディングス</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>三井住友トラストグループ株式会社</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>株式会社三井住友フィナンシャルグループ</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>株式会社みずほフィナンシャルグループ</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>株式会社ほくほくフィナンシャルグループ</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>株式会社山口フィナンシャルグループ</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>株式会社ふくおかフィナンシャルグループ</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>フィデアホールディングス株式会社</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>株式会社池田泉州ホールディングス</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>トモニホールディングス株式会社</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>株式会社じもとホールディングス</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>株式会社めぶきフィナンシャルグループ</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>株式会社東京きらぼしフィナンシャルグループ</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>株式会社九州フィナンシャルグループ</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>株式会社コンコルディア・フィナンシャルグループ</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>株式会社西日本フィナンシャルホールディングス</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>株式会社三十三フィナンシャルグループ</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>株式会社第四北越フィナンシャルグループ</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>株式会社ひろぎんホールディングス</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>株式会社北國フィナンシャルホールディングス</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>株式会社十六フィナンシャルグループ</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>株式会社おきなわフィナンシャルグループ</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>株式会社プロクレアホールディングス</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>株式会社いよぎんホールディングス</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>株式会社しずおかフィナンシャルグループ</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>株式会社あいちフィナンシャルグループ</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>株式会社ちゅうぎんフィナンシャルグループ</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
           <t>株式会社京都フィナンシャルグループ</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>株式会社三菱ＵＦＪフィナンシャル・グループ</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>株式会社三井住友フィナンシャルグループ</t>
         </is>
       </c>
     </row>
@@ -411,22 +541,100 @@
         </is>
       </c>
       <c r="D2">
+        <v>3531</v>
+      </c>
+      <c r="E2">
+        <v>771</v>
+      </c>
+      <c r="F2">
+        <v>620</v>
+      </c>
+      <c r="G2">
+        <v>5303</v>
+      </c>
+      <c r="H2">
+        <v>361</v>
+      </c>
+      <c r="I2">
+        <v>13</v>
+      </c>
+      <c r="J2">
+        <v>23</v>
+      </c>
+      <c r="K2">
+        <v>42</v>
+      </c>
+      <c r="L2">
+        <v>9</v>
+      </c>
+      <c r="M2">
+        <v>8</v>
+      </c>
+      <c r="N2">
+        <v>40</v>
+      </c>
+      <c r="O2">
+        <v>10</v>
+      </c>
+      <c r="P2">
+        <v>44</v>
+      </c>
+      <c r="Q2">
+        <v>60</v>
+      </c>
+      <c r="R2">
+        <v>33</v>
+      </c>
+      <c r="S2">
+        <v>697</v>
+      </c>
+      <c r="T2">
+        <v>110</v>
+      </c>
+      <c r="U2">
+        <v>21</v>
+      </c>
+      <c r="V2">
+        <v>16</v>
+      </c>
+      <c r="W2">
+        <v>180</v>
+      </c>
+      <c r="X2">
+        <v>152</v>
+      </c>
+      <c r="Y2">
+        <v>4</v>
+      </c>
+      <c r="Z2">
+        <v>17</v>
+      </c>
+      <c r="AA2">
+        <v>27</v>
+      </c>
+      <c r="AB2">
+        <v>10</v>
+      </c>
+      <c r="AC2">
+        <v>475</v>
+      </c>
+      <c r="AD2">
+        <v>28</v>
+      </c>
+      <c r="AE2">
+        <v>81</v>
+      </c>
+      <c r="AF2">
         <v>85</v>
-      </c>
-      <c r="E2">
-        <v>3531</v>
-      </c>
-      <c r="F2">
-        <v>5303</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>45747</v>
+        <v>45382</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>前払費用</t>
+          <t>現金及び預金</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -434,11 +642,11 @@
           <t>円</t>
         </is>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
       <c r="F3">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="O3">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -447,7 +655,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>未収入金</t>
+          <t>前払費用</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -455,17 +663,77 @@
           <t>円</t>
         </is>
       </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
       <c r="E4">
-        <v>86</v>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>21</v>
+      </c>
+      <c r="H4">
+        <v>54</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>45747</v>
+        <v>45382</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>未収収益</t>
+          <t>前払費用</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -474,7 +742,10 @@
         </is>
       </c>
       <c r="F5">
-        <v>921</v>
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -483,7 +754,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>未収還付法人税等</t>
+          <t>未収入金</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -491,17 +762,32 @@
           <t>円</t>
         </is>
       </c>
-      <c r="F6">
-        <v>155</v>
+      <c r="D6">
+        <v>86</v>
+      </c>
+      <c r="E6">
+        <v>14</v>
+      </c>
+      <c r="J6">
+        <v>36</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>45747</v>
+        <v>45382</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>１年内回収予定の関係会社長期貸付金</t>
+          <t>未収入金</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -509,11 +795,8 @@
           <t>円</t>
         </is>
       </c>
-      <c r="E7">
-        <v>9064</v>
-      </c>
-      <c r="F7">
-        <v>11770</v>
+      <c r="O7">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -522,7 +805,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>その他、流動資産</t>
+          <t>未収収益</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -530,23 +813,41 @@
           <t>円</t>
         </is>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
       <c r="E8">
-        <v>916</v>
-      </c>
-      <c r="F8">
-        <v>108</v>
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>921</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>5</v>
+      </c>
+      <c r="V8">
+        <v>3</v>
+      </c>
+      <c r="X8">
+        <v>27</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2">
-        <v>45747</v>
+        <v>45382</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>貸倒引当金、流動資産、一括控除</t>
+          <t>未収収益</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -554,8 +855,8 @@
           <t>円</t>
         </is>
       </c>
-      <c r="E9">
-        <v>-1</v>
+      <c r="O9">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -564,7 +865,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>流動資産</t>
+          <t>未収還付法人税等</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -572,23 +873,44 @@
           <t>円</t>
         </is>
       </c>
-      <c r="D10">
-        <v>185</v>
-      </c>
       <c r="E10">
-        <v>13596</v>
-      </c>
-      <c r="F10">
-        <v>18277</v>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>155</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2">
-        <v>45747</v>
+        <v>45382</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>建物（純額）</t>
+          <t>未収還付法人税等</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -596,11 +918,8 @@
           <t>円</t>
         </is>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
       <c r="F11">
-        <v>360</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
@@ -609,7 +928,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>土地</t>
+          <t>１年内回収予定の関係会社長期貸付金</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -617,17 +936,26 @@
           <t>円</t>
         </is>
       </c>
+      <c r="D12">
+        <v>9064</v>
+      </c>
       <c r="F12">
-        <v>315</v>
+        <v>600</v>
+      </c>
+      <c r="G12">
+        <v>11770</v>
+      </c>
+      <c r="H12">
+        <v>3182</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2">
-        <v>45747</v>
+        <v>45382</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>工具、器具及び備品（純額）</t>
+          <t>１年内回収予定の関係会社長期貸付金</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -636,7 +964,7 @@
         </is>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14">
@@ -645,22 +973,97 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>建設仮勘定</t>
+          <t>その他、流動資産</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t>円</t>
         </is>
+      </c>
+      <c r="D14">
+        <v>916</v>
+      </c>
+      <c r="F14">
+        <v>27</v>
+      </c>
+      <c r="G14">
+        <v>108</v>
+      </c>
+      <c r="H14">
+        <v>1143</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>9</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>2</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>4</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>4</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>2</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2">
-        <v>45747</v>
+        <v>45382</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>リース資産（純額）、有形固定資産</t>
+          <t>その他、流動資産</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -668,8 +1071,11 @@
           <t>円</t>
         </is>
       </c>
-      <c r="E15">
-        <v>7</v>
+      <c r="F15">
+        <v>33</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -678,7 +1084,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>有形固定資産</t>
+          <t>貸倒引当金、流動資産、一括控除</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -687,13 +1093,7 @@
         </is>
       </c>
       <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>52</v>
-      </c>
-      <c r="F16">
-        <v>678</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17">
@@ -702,7 +1102,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>商標権</t>
+          <t>流動資産</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -710,17 +1110,101 @@
           <t>円</t>
         </is>
       </c>
+      <c r="D17">
+        <v>13596</v>
+      </c>
       <c r="E17">
-        <v>1</v>
+        <v>789</v>
+      </c>
+      <c r="F17">
+        <v>1250</v>
+      </c>
+      <c r="G17">
+        <v>18277</v>
+      </c>
+      <c r="H17">
+        <v>4740</v>
+      </c>
+      <c r="I17">
+        <v>13</v>
+      </c>
+      <c r="J17">
+        <v>63</v>
+      </c>
+      <c r="K17">
+        <v>51</v>
+      </c>
+      <c r="L17">
+        <v>9</v>
+      </c>
+      <c r="M17">
+        <v>8</v>
+      </c>
+      <c r="N17">
+        <v>50</v>
+      </c>
+      <c r="O17">
+        <v>10</v>
+      </c>
+      <c r="P17">
+        <v>46</v>
+      </c>
+      <c r="Q17">
+        <v>61</v>
+      </c>
+      <c r="R17">
+        <v>34</v>
+      </c>
+      <c r="S17">
+        <v>806</v>
+      </c>
+      <c r="T17">
+        <v>111</v>
+      </c>
+      <c r="U17">
+        <v>21</v>
+      </c>
+      <c r="V17">
+        <v>19</v>
+      </c>
+      <c r="W17">
+        <v>185</v>
+      </c>
+      <c r="X17">
+        <v>180</v>
+      </c>
+      <c r="Y17">
+        <v>5</v>
+      </c>
+      <c r="Z17">
+        <v>18</v>
+      </c>
+      <c r="AA17">
+        <v>29</v>
+      </c>
+      <c r="AB17">
+        <v>10</v>
+      </c>
+      <c r="AC17">
+        <v>478</v>
+      </c>
+      <c r="AD17">
+        <v>29</v>
+      </c>
+      <c r="AE17">
+        <v>82</v>
+      </c>
+      <c r="AF17">
+        <v>185</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
-        <v>45747</v>
+        <v>45382</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ソフトウエア</t>
+          <t>流動資産</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -728,14 +1212,11 @@
           <t>円</t>
         </is>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>178</v>
-      </c>
       <c r="F18">
-        <v>162</v>
+        <v>905</v>
+      </c>
+      <c r="O18">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -744,7 +1225,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>その他、無形固定資産</t>
+          <t>建物（純額）</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -752,8 +1233,20 @@
           <t>円</t>
         </is>
       </c>
-      <c r="E19">
-        <v>107</v>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>360</v>
+      </c>
+      <c r="H19">
+        <v>153</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -762,7 +1255,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>無形固定資産</t>
+          <t>土地</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -770,14 +1263,17 @@
           <t>円</t>
         </is>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>285</v>
-      </c>
-      <c r="F20">
-        <v>162</v>
+      <c r="G20">
+        <v>315</v>
+      </c>
+      <c r="H20">
+        <v>321</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>21</v>
       </c>
     </row>
     <row r="21">
@@ -786,7 +1282,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>投資有価証券</t>
+          <t>工具、器具及び備品（純額）</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -794,17 +1290,44 @@
           <t>円</t>
         </is>
       </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
       <c r="F21">
-        <v>1078</v>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2">
-        <v>45747</v>
+        <v>45382</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>関係会社株式</t>
+          <t>工具、器具及び備品（純額）</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -812,14 +1335,11 @@
           <t>円</t>
         </is>
       </c>
-      <c r="D22">
-        <v>4673</v>
-      </c>
-      <c r="E22">
-        <v>93984</v>
-      </c>
       <c r="F22">
-        <v>70890</v>
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -828,7 +1348,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>関係会社長期貸付金</t>
+          <t>建設仮勘定</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -836,11 +1356,14 @@
           <t>円</t>
         </is>
       </c>
-      <c r="E23">
-        <v>112995</v>
-      </c>
-      <c r="F23">
-        <v>112395</v>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -849,7 +1372,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>長期前払費用</t>
+          <t>リース資産（純額）、有形固定資産</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -857,7 +1380,10 @@
           <t>円</t>
         </is>
       </c>
-      <c r="F24">
+      <c r="D24">
+        <v>7</v>
+      </c>
+      <c r="K24">
         <v>7</v>
       </c>
     </row>
@@ -867,7 +1393,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>繰延税金資産</t>
+          <t>有形固定資産</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -876,19 +1402,76 @@
         </is>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E25">
-        <v>249</v>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>678</v>
+      </c>
+      <c r="H25">
+        <v>478</v>
+      </c>
+      <c r="J25">
+        <v>9</v>
+      </c>
+      <c r="K25">
+        <v>8</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>122</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>8</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2">
-        <v>45747</v>
+        <v>45382</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>その他、投資その他の資産</t>
+          <t>有形固定資産</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -896,11 +1479,11 @@
           <t>円</t>
         </is>
       </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
       <c r="F26">
-        <v>27</v>
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -909,7 +1492,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>貸倒引当金、投資その他の資産、一括控除</t>
+          <t>商標権</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -917,8 +1500,35 @@
           <t>円</t>
         </is>
       </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
       <c r="E27">
-        <v>-11</v>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -927,7 +1537,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>投資その他の資産</t>
+          <t>ソフトウエア</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -936,22 +1546,76 @@
         </is>
       </c>
       <c r="D28">
-        <v>4674</v>
+        <v>178</v>
       </c>
       <c r="E28">
-        <v>207217</v>
-      </c>
-      <c r="F28">
-        <v>184397</v>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>162</v>
+      </c>
+      <c r="H28">
+        <v>189</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <v>59</v>
+      </c>
+      <c r="L28">
+        <v>2</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>2</v>
+      </c>
+      <c r="R28">
+        <v>5</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2">
-        <v>45747</v>
+        <v>45382</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>固定資産</t>
+          <t>ソフトウエア</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -959,14 +1623,11 @@
           <t>円</t>
         </is>
       </c>
-      <c r="D29">
-        <v>4674</v>
-      </c>
-      <c r="E29">
-        <v>207554</v>
-      </c>
       <c r="F29">
-        <v>185237</v>
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -975,7 +1636,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>資産</t>
+          <t>その他、無形固定資産</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -984,22 +1645,34 @@
         </is>
       </c>
       <c r="D30">
-        <v>4859</v>
-      </c>
-      <c r="E30">
-        <v>221150</v>
+        <v>107</v>
       </c>
       <c r="F30">
-        <v>203514</v>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>19</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2">
-        <v>45747</v>
+        <v>45382</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>短期借入金</t>
+          <t>その他、無形固定資産</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1007,11 +1680,8 @@
           <t>円</t>
         </is>
       </c>
-      <c r="E31">
-        <v>11280</v>
-      </c>
       <c r="F31">
-        <v>16796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1020,7 +1690,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>１年内償還予定の社債</t>
+          <t>無形固定資産</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1028,20 +1698,92 @@
           <t>円</t>
         </is>
       </c>
+      <c r="D32">
+        <v>285</v>
+      </c>
       <c r="E32">
-        <v>8846</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>12386</v>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>162</v>
+      </c>
+      <c r="H32">
+        <v>208</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>11</v>
+      </c>
+      <c r="K32">
+        <v>60</v>
+      </c>
+      <c r="L32">
+        <v>2</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>2</v>
+      </c>
+      <c r="R32">
+        <v>5</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2">
-        <v>45747</v>
+        <v>45382</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>１年内返済予定の長期借入金</t>
+          <t>無形固定資産</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1049,11 +1791,11 @@
           <t>円</t>
         </is>
       </c>
-      <c r="E33">
-        <v>220</v>
-      </c>
       <c r="F33">
-        <v>80</v>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1062,7 +1804,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>リース債務、流動負債</t>
+          <t>投資有価証券</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1071,16 +1813,49 @@
         </is>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>274</v>
+      </c>
+      <c r="F34">
+        <v>6</v>
+      </c>
+      <c r="G34">
+        <v>1078</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>100</v>
+      </c>
+      <c r="Q34">
+        <v>5</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>1</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2">
-        <v>45747</v>
+        <v>45382</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>未払金</t>
+          <t>投資有価証券</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1088,11 +1863,8 @@
           <t>円</t>
         </is>
       </c>
-      <c r="E35">
-        <v>131</v>
-      </c>
       <c r="F35">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -1101,7 +1873,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>未払費用</t>
+          <t>関係会社株式</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1110,22 +1882,100 @@
         </is>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>93984</v>
       </c>
       <c r="E36">
-        <v>807</v>
+        <v>14048</v>
       </c>
       <c r="F36">
-        <v>922</v>
+        <v>14606</v>
+      </c>
+      <c r="G36">
+        <v>70890</v>
+      </c>
+      <c r="H36">
+        <v>59841</v>
+      </c>
+      <c r="I36">
+        <v>1981</v>
+      </c>
+      <c r="J36">
+        <v>4328</v>
+      </c>
+      <c r="K36">
+        <v>7356</v>
+      </c>
+      <c r="L36">
+        <v>621</v>
+      </c>
+      <c r="M36">
+        <v>1699</v>
+      </c>
+      <c r="N36">
+        <v>998</v>
+      </c>
+      <c r="O36">
+        <v>1170</v>
+      </c>
+      <c r="P36">
+        <v>7273</v>
+      </c>
+      <c r="Q36">
+        <v>2238</v>
+      </c>
+      <c r="R36">
+        <v>4505</v>
+      </c>
+      <c r="S36">
+        <v>8798</v>
+      </c>
+      <c r="T36">
+        <v>4232</v>
+      </c>
+      <c r="U36">
+        <v>1289</v>
+      </c>
+      <c r="V36">
+        <v>3221</v>
+      </c>
+      <c r="W36">
+        <v>4488</v>
+      </c>
+      <c r="X36">
+        <v>1796</v>
+      </c>
+      <c r="Y36">
+        <v>3012</v>
+      </c>
+      <c r="Z36">
+        <v>1413</v>
+      </c>
+      <c r="AA36">
+        <v>1162</v>
+      </c>
+      <c r="AB36">
+        <v>5011</v>
+      </c>
+      <c r="AC36">
+        <v>8044</v>
+      </c>
+      <c r="AD36">
+        <v>2066</v>
+      </c>
+      <c r="AE36">
+        <v>4741</v>
+      </c>
+      <c r="AF36">
+        <v>4673</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2">
-        <v>45747</v>
+        <v>45382</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>未払法人税等</t>
+          <t>関係会社株式</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1133,14 +1983,11 @@
           <t>円</t>
         </is>
       </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
       <c r="F37">
-        <v>0</v>
+        <v>14409</v>
+      </c>
+      <c r="O37">
+        <v>1170</v>
       </c>
     </row>
     <row r="38">
@@ -1149,7 +1996,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>未払事業所税</t>
+          <t>関係会社長期貸付金</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1157,17 +2004,29 @@
           <t>円</t>
         </is>
       </c>
+      <c r="D38">
+        <v>112995</v>
+      </c>
       <c r="F38">
-        <v>1</v>
+        <v>6410</v>
+      </c>
+      <c r="G38">
+        <v>112395</v>
+      </c>
+      <c r="H38">
+        <v>101455</v>
+      </c>
+      <c r="S38">
+        <v>200</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2">
-        <v>45747</v>
+        <v>45382</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>預り金</t>
+          <t>関係会社長期貸付金</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1175,11 +2034,8 @@
           <t>円</t>
         </is>
       </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>22</v>
+      <c r="F39">
+        <v>5910</v>
       </c>
     </row>
     <row r="40">
@@ -1188,7 +2044,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>賞与引当金</t>
+          <t>長期前払費用</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1196,11 +2052,20 @@
           <t>円</t>
         </is>
       </c>
-      <c r="E40">
-        <v>10</v>
-      </c>
-      <c r="F40">
-        <v>12</v>
+      <c r="G40">
+        <v>7</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>2</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1209,7 +2074,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>役員賞与引当金</t>
+          <t>繰延税金資産</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1217,20 +2082,83 @@
           <t>円</t>
         </is>
       </c>
-      <c r="E41">
-        <v>5</v>
+      <c r="D41">
+        <v>249</v>
       </c>
       <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="J41">
         <v>6</v>
+      </c>
+      <c r="K41">
+        <v>7</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+      <c r="S41">
+        <v>1</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>2</v>
+      </c>
+      <c r="W41">
+        <v>2</v>
+      </c>
+      <c r="Y41">
+        <v>1</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>1</v>
+      </c>
+      <c r="AC41">
+        <v>1</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
+      </c>
+      <c r="AF41">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2">
-        <v>45747</v>
+        <v>45382</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>その他、流動負債</t>
+          <t>繰延税金資産</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1238,14 +2166,11 @@
           <t>円</t>
         </is>
       </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>202</v>
-      </c>
       <c r="F42">
-        <v>60</v>
+        <v>3</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1254,7 +2179,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>流動負債</t>
+          <t>その他、投資その他の資産</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1263,22 +2188,55 @@
         </is>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>21527</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>30277</v>
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>27</v>
+      </c>
+      <c r="H43">
+        <v>226</v>
+      </c>
+      <c r="I43">
+        <v>5</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2">
-        <v>45747</v>
+        <v>45382</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>社債</t>
+          <t>その他、投資その他の資産</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1286,11 +2244,8 @@
           <t>円</t>
         </is>
       </c>
-      <c r="E44">
-        <v>107283</v>
-      </c>
       <c r="F44">
-        <v>105054</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1299,7 +2254,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>長期借入金</t>
+          <t>貸倒引当金、投資その他の資産、一括控除</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1307,11 +2262,11 @@
           <t>円</t>
         </is>
       </c>
-      <c r="E45">
-        <v>5710</v>
-      </c>
-      <c r="F45">
-        <v>4251</v>
+      <c r="D45">
+        <v>-11</v>
+      </c>
+      <c r="Y45">
+        <v>-1</v>
       </c>
     </row>
     <row r="46">
@@ -1320,7 +2275,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>リース債務、固定負債</t>
+          <t>投資その他の資産</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1328,17 +2283,101 @@
           <t>円</t>
         </is>
       </c>
+      <c r="D46">
+        <v>207217</v>
+      </c>
       <c r="E46">
-        <v>5</v>
+        <v>14313</v>
+      </c>
+      <c r="F46">
+        <v>21027</v>
+      </c>
+      <c r="G46">
+        <v>184397</v>
+      </c>
+      <c r="H46">
+        <v>161889</v>
+      </c>
+      <c r="I46">
+        <v>1986</v>
+      </c>
+      <c r="J46">
+        <v>4436</v>
+      </c>
+      <c r="K46">
+        <v>7363</v>
+      </c>
+      <c r="L46">
+        <v>623</v>
+      </c>
+      <c r="M46">
+        <v>1699</v>
+      </c>
+      <c r="N46">
+        <v>999</v>
+      </c>
+      <c r="O46">
+        <v>1170</v>
+      </c>
+      <c r="P46">
+        <v>7273</v>
+      </c>
+      <c r="Q46">
+        <v>2244</v>
+      </c>
+      <c r="R46">
+        <v>4505</v>
+      </c>
+      <c r="S46">
+        <v>8998</v>
+      </c>
+      <c r="T46">
+        <v>4232</v>
+      </c>
+      <c r="U46">
+        <v>1291</v>
+      </c>
+      <c r="V46">
+        <v>3223</v>
+      </c>
+      <c r="W46">
+        <v>4492</v>
+      </c>
+      <c r="X46">
+        <v>1796</v>
+      </c>
+      <c r="Y46">
+        <v>3014</v>
+      </c>
+      <c r="Z46">
+        <v>1414</v>
+      </c>
+      <c r="AA46">
+        <v>1162</v>
+      </c>
+      <c r="AB46">
+        <v>5011</v>
+      </c>
+      <c r="AC46">
+        <v>8045</v>
+      </c>
+      <c r="AD46">
+        <v>2066</v>
+      </c>
+      <c r="AE46">
+        <v>4972</v>
+      </c>
+      <c r="AF46">
+        <v>4674</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2">
-        <v>45747</v>
+        <v>45382</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>長期未払法人税等</t>
+          <t>投資その他の資産</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1346,8 +2385,11 @@
           <t>円</t>
         </is>
       </c>
-      <c r="E47">
-        <v>22</v>
+      <c r="F47">
+        <v>20330</v>
+      </c>
+      <c r="O47">
+        <v>1170</v>
       </c>
     </row>
     <row r="48">
@@ -1356,7 +2398,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>繰延税金負債</t>
+          <t>固定資産</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1364,17 +2406,101 @@
           <t>円</t>
         </is>
       </c>
+      <c r="D48">
+        <v>207554</v>
+      </c>
+      <c r="E48">
+        <v>14314</v>
+      </c>
       <c r="F48">
-        <v>72</v>
+        <v>21027</v>
+      </c>
+      <c r="G48">
+        <v>185237</v>
+      </c>
+      <c r="H48">
+        <v>162575</v>
+      </c>
+      <c r="I48">
+        <v>1986</v>
+      </c>
+      <c r="J48">
+        <v>4456</v>
+      </c>
+      <c r="K48">
+        <v>7432</v>
+      </c>
+      <c r="L48">
+        <v>627</v>
+      </c>
+      <c r="M48">
+        <v>1699</v>
+      </c>
+      <c r="N48">
+        <v>999</v>
+      </c>
+      <c r="O48">
+        <v>1170</v>
+      </c>
+      <c r="P48">
+        <v>7273</v>
+      </c>
+      <c r="Q48">
+        <v>2246</v>
+      </c>
+      <c r="R48">
+        <v>4632</v>
+      </c>
+      <c r="S48">
+        <v>8999</v>
+      </c>
+      <c r="T48">
+        <v>4232</v>
+      </c>
+      <c r="U48">
+        <v>1291</v>
+      </c>
+      <c r="V48">
+        <v>3223</v>
+      </c>
+      <c r="W48">
+        <v>4492</v>
+      </c>
+      <c r="X48">
+        <v>1796</v>
+      </c>
+      <c r="Y48">
+        <v>3022</v>
+      </c>
+      <c r="Z48">
+        <v>1414</v>
+      </c>
+      <c r="AA48">
+        <v>1162</v>
+      </c>
+      <c r="AB48">
+        <v>5011</v>
+      </c>
+      <c r="AC48">
+        <v>8045</v>
+      </c>
+      <c r="AD48">
+        <v>2066</v>
+      </c>
+      <c r="AE48">
+        <v>4972</v>
+      </c>
+      <c r="AF48">
+        <v>4674</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2">
-        <v>45747</v>
+        <v>45382</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>その他、固定負債</t>
+          <t>固定資産</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1383,7 +2509,10 @@
         </is>
       </c>
       <c r="F49">
-        <v>11</v>
+        <v>20330</v>
+      </c>
+      <c r="O49">
+        <v>1171</v>
       </c>
     </row>
     <row r="50">
@@ -1392,7 +2521,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>固定負債</t>
+          <t>資産</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1400,20 +2529,101 @@
           <t>円</t>
         </is>
       </c>
+      <c r="D50">
+        <v>221150</v>
+      </c>
       <c r="E50">
-        <v>113043</v>
+        <v>15102</v>
       </c>
       <c r="F50">
-        <v>109388</v>
+        <v>22277</v>
+      </c>
+      <c r="G50">
+        <v>203514</v>
+      </c>
+      <c r="H50">
+        <v>167314</v>
+      </c>
+      <c r="I50">
+        <v>1999</v>
+      </c>
+      <c r="J50">
+        <v>4522</v>
+      </c>
+      <c r="K50">
+        <v>7482</v>
+      </c>
+      <c r="L50">
+        <v>637</v>
+      </c>
+      <c r="M50">
+        <v>1707</v>
+      </c>
+      <c r="N50">
+        <v>1049</v>
+      </c>
+      <c r="O50">
+        <v>1181</v>
+      </c>
+      <c r="P50">
+        <v>7319</v>
+      </c>
+      <c r="Q50">
+        <v>2306</v>
+      </c>
+      <c r="R50">
+        <v>4666</v>
+      </c>
+      <c r="S50">
+        <v>9804</v>
+      </c>
+      <c r="T50">
+        <v>4343</v>
+      </c>
+      <c r="U50">
+        <v>1312</v>
+      </c>
+      <c r="V50">
+        <v>3242</v>
+      </c>
+      <c r="W50">
+        <v>4677</v>
+      </c>
+      <c r="X50">
+        <v>1976</v>
+      </c>
+      <c r="Y50">
+        <v>3028</v>
+      </c>
+      <c r="Z50">
+        <v>1432</v>
+      </c>
+      <c r="AA50">
+        <v>1192</v>
+      </c>
+      <c r="AB50">
+        <v>5022</v>
+      </c>
+      <c r="AC50">
+        <v>8523</v>
+      </c>
+      <c r="AD50">
+        <v>2095</v>
+      </c>
+      <c r="AE50">
+        <v>5054</v>
+      </c>
+      <c r="AF50">
+        <v>4859</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2">
-        <v>45747</v>
+        <v>45382</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>負債</t>
+          <t>資産</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1421,14 +2631,11 @@
           <t>円</t>
         </is>
       </c>
-      <c r="D51">
-        <v>2</v>
-      </c>
-      <c r="E51">
-        <v>134570</v>
-      </c>
       <c r="F51">
-        <v>139665</v>
+        <v>21234</v>
+      </c>
+      <c r="O51">
+        <v>1181</v>
       </c>
     </row>
     <row r="52">
@@ -1437,7 +2644,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>資本金</t>
+          <t>短期借入金</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1446,13 +2653,31 @@
         </is>
       </c>
       <c r="D52">
+        <v>11280</v>
+      </c>
+      <c r="G52">
+        <v>16796</v>
+      </c>
+      <c r="H52">
+        <v>5300</v>
+      </c>
+      <c r="J52">
         <v>400</v>
       </c>
-      <c r="E52">
-        <v>21415</v>
-      </c>
-      <c r="F52">
-        <v>23460</v>
+      <c r="K52">
+        <v>1099</v>
+      </c>
+      <c r="M52">
+        <v>41</v>
+      </c>
+      <c r="Q52">
+        <v>51</v>
+      </c>
+      <c r="R52">
+        <v>5</v>
+      </c>
+      <c r="Y52">
+        <v>16</v>
       </c>
     </row>
     <row r="53">
@@ -1461,7 +2686,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>資本準備金</t>
+          <t>１年内償還予定の社債</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1470,22 +2695,28 @@
         </is>
       </c>
       <c r="D53">
+        <v>8846</v>
+      </c>
+      <c r="E53">
         <v>100</v>
       </c>
-      <c r="E53">
-        <v>21415</v>
-      </c>
       <c r="F53">
-        <v>15674</v>
+        <v>600</v>
+      </c>
+      <c r="G53">
+        <v>12386</v>
+      </c>
+      <c r="H53">
+        <v>2132</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2">
-        <v>45747</v>
+        <v>45382</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>その他資本剰余金</t>
+          <t>１年内償還予定の社債</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1493,8 +2724,8 @@
           <t>円</t>
         </is>
       </c>
-      <c r="D54">
-        <v>4386</v>
+      <c r="F54">
+        <v>300</v>
       </c>
     </row>
     <row r="55">
@@ -1503,7 +2734,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>資本剰余金</t>
+          <t>１年内返済予定の長期借入金</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1512,13 +2743,22 @@
         </is>
       </c>
       <c r="D55">
-        <v>4486</v>
-      </c>
-      <c r="E55">
-        <v>21415</v>
-      </c>
-      <c r="F55">
-        <v>15674</v>
+        <v>220</v>
+      </c>
+      <c r="G55">
+        <v>80</v>
+      </c>
+      <c r="H55">
+        <v>150</v>
+      </c>
+      <c r="Q55">
+        <v>2</v>
+      </c>
+      <c r="R55">
+        <v>6</v>
+      </c>
+      <c r="W55">
+        <v>5</v>
       </c>
     </row>
     <row r="56">
@@ -1527,7 +2767,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>別途積立金</t>
+          <t>リース債務、流動負債</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1535,11 +2775,11 @@
           <t>円</t>
         </is>
       </c>
-      <c r="E56">
-        <v>1500</v>
-      </c>
-      <c r="F56">
-        <v>304</v>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -1548,7 +2788,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>繰越利益剰余金</t>
+          <t>未払金</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1557,22 +2797,64 @@
         </is>
       </c>
       <c r="D57">
-        <v>221</v>
+        <v>131</v>
       </c>
       <c r="E57">
-        <v>50351</v>
-      </c>
-      <c r="F57">
-        <v>24598</v>
+        <v>26</v>
+      </c>
+      <c r="G57">
+        <v>13</v>
+      </c>
+      <c r="H57">
+        <v>136</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>17</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>1</v>
+      </c>
+      <c r="X57">
+        <v>4</v>
+      </c>
+      <c r="Y57">
+        <v>1</v>
+      </c>
+      <c r="AB57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2">
-        <v>45747</v>
+        <v>45382</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>利益剰余金</t>
+          <t>未払金</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1580,14 +2862,8 @@
           <t>円</t>
         </is>
       </c>
-      <c r="D58">
-        <v>221</v>
-      </c>
-      <c r="E58">
-        <v>51851</v>
-      </c>
-      <c r="F58">
-        <v>24902</v>
+      <c r="O58">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1596,7 +2872,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>自己株式</t>
+          <t>未払費用</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1605,22 +2881,100 @@
         </is>
       </c>
       <c r="D59">
-        <v>-252</v>
+        <v>807</v>
       </c>
       <c r="E59">
-        <v>-7260</v>
+        <v>4</v>
       </c>
       <c r="F59">
-        <v>-385</v>
+        <v>24</v>
+      </c>
+      <c r="G59">
+        <v>922</v>
+      </c>
+      <c r="H59">
+        <v>913</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>11</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>1</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>1</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>1</v>
+      </c>
+      <c r="X59">
+        <v>3</v>
+      </c>
+      <c r="Y59">
+        <v>4</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <v>0</v>
+      </c>
+      <c r="AC59">
+        <v>0</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>2</v>
+      </c>
+      <c r="AF59">
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2">
-        <v>45747</v>
+        <v>45382</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>株主資本</t>
+          <t>未払費用</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1628,14 +2982,11 @@
           <t>円</t>
         </is>
       </c>
-      <c r="D60">
-        <v>4855</v>
-      </c>
-      <c r="E60">
-        <v>87421</v>
-      </c>
       <c r="F60">
-        <v>63651</v>
+        <v>21</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1644,7 +2995,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>繰延ヘッジ損益</t>
+          <t>未払法人税等</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1652,17 +3003,101 @@
           <t>円</t>
         </is>
       </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
       <c r="E61">
-        <v>-841</v>
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>5</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>10</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>1</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>1</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <v>1</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>0</v>
+      </c>
+      <c r="AB61">
+        <v>0</v>
+      </c>
+      <c r="AC61">
+        <v>6</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>1</v>
+      </c>
+      <c r="AF61">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2">
-        <v>45747</v>
+        <v>45382</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>評価・換算差額等</t>
+          <t>未払法人税等</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1670,11 +3105,11 @@
           <t>円</t>
         </is>
       </c>
-      <c r="E62">
-        <v>-841</v>
-      </c>
       <c r="F62">
-        <v>190</v>
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1683,7 +3118,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>建物</t>
+          <t>未払事業所税</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1691,8 +3126,8 @@
           <t>円</t>
         </is>
       </c>
-      <c r="D63">
-        <v>0</v>
+      <c r="G63">
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -1701,7 +3136,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>未払消費税等</t>
+          <t>預り金</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1710,16 +3145,52 @@
         </is>
       </c>
       <c r="D64">
+        <v>22</v>
+      </c>
+      <c r="H64">
+        <v>15</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>1</v>
+      </c>
+      <c r="S64">
+        <v>3</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>1</v>
+      </c>
+      <c r="Y64">
+        <v>1</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AC64">
+        <v>0</v>
+      </c>
+      <c r="AF64">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2">
-        <v>45747</v>
+        <v>45382</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>新株予約権</t>
+          <t>預り金</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1727,11 +3198,8 @@
           <t>円</t>
         </is>
       </c>
-      <c r="D65">
-        <v>2</v>
-      </c>
-      <c r="F65">
-        <v>8</v>
+      <c r="O65">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1740,7 +3208,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>純資産</t>
+          <t>賞与引当金</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1749,22 +3217,73 @@
         </is>
       </c>
       <c r="D66">
-        <v>4857</v>
+        <v>10</v>
       </c>
       <c r="E66">
-        <v>86580</v>
+        <v>10</v>
       </c>
       <c r="F66">
-        <v>63849</v>
+        <v>3</v>
+      </c>
+      <c r="G66">
+        <v>12</v>
+      </c>
+      <c r="H66">
+        <v>25</v>
+      </c>
+      <c r="J66">
+        <v>35</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>1</v>
+      </c>
+      <c r="S66">
+        <v>1</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>1</v>
+      </c>
+      <c r="X66">
+        <v>1</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>0</v>
+      </c>
+      <c r="AB66">
+        <v>1</v>
+      </c>
+      <c r="AD66">
+        <v>1</v>
+      </c>
+      <c r="AE66">
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2">
-        <v>45747</v>
+        <v>45382</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>負債純資産</t>
+          <t>賞与引当金</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1772,14 +3291,11 @@
           <t>円</t>
         </is>
       </c>
-      <c r="D67">
-        <v>4859</v>
-      </c>
-      <c r="E67">
-        <v>221150</v>
-      </c>
       <c r="F67">
-        <v>203514</v>
+        <v>3</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1788,7 +3304,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>純資産1</t>
+          <t>役員賞与引当金</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1797,22 +3313,55 @@
         </is>
       </c>
       <c r="D68">
-        <v>400</v>
+        <v>5</v>
       </c>
       <c r="E68">
-        <v>21415</v>
+        <v>2</v>
       </c>
       <c r="F68">
-        <v>23460</v>
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>6</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>0</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2">
-        <v>45747</v>
+        <v>45382</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>純資産2</t>
+          <t>役員賞与引当金</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1820,14 +3369,8 @@
           <t>円</t>
         </is>
       </c>
-      <c r="D69">
-        <v>100</v>
-      </c>
-      <c r="E69">
-        <v>21415</v>
-      </c>
       <c r="F69">
-        <v>15674</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -1836,7 +3379,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>純資産3</t>
+          <t>その他、流動負債</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1845,16 +3388,85 @@
         </is>
       </c>
       <c r="D70">
-        <v>4386</v>
+        <v>202</v>
+      </c>
+      <c r="E70">
+        <v>5</v>
+      </c>
+      <c r="F70">
+        <v>5</v>
+      </c>
+      <c r="G70">
+        <v>60</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>5</v>
+      </c>
+      <c r="K70">
+        <v>2</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>1</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>1</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>6</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>1</v>
+      </c>
+      <c r="AA70">
+        <v>0</v>
+      </c>
+      <c r="AB70">
+        <v>1</v>
+      </c>
+      <c r="AC70">
+        <v>3</v>
+      </c>
+      <c r="AD70">
+        <v>1</v>
+      </c>
+      <c r="AE70">
+        <v>1</v>
+      </c>
+      <c r="AF70">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2">
-        <v>45747</v>
+        <v>45382</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>純資産4</t>
+          <t>その他、流動負債</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1862,11 +3474,8 @@
           <t>円</t>
         </is>
       </c>
-      <c r="E71">
-        <v>1500</v>
-      </c>
       <c r="F71">
-        <v>304</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72">
@@ -1875,7 +3484,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>純資産5</t>
+          <t>流動負債</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1884,22 +3493,100 @@
         </is>
       </c>
       <c r="D72">
-        <v>221</v>
+        <v>21527</v>
       </c>
       <c r="E72">
-        <v>50351</v>
+        <v>150</v>
       </c>
       <c r="F72">
-        <v>24598</v>
+        <v>639</v>
+      </c>
+      <c r="G72">
+        <v>30277</v>
+      </c>
+      <c r="H72">
+        <v>8692</v>
+      </c>
+      <c r="I72">
+        <v>3</v>
+      </c>
+      <c r="J72">
+        <v>454</v>
+      </c>
+      <c r="K72">
+        <v>1680</v>
+      </c>
+      <c r="L72">
+        <v>2</v>
+      </c>
+      <c r="M72">
+        <v>43</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>3</v>
+      </c>
+      <c r="Q72">
+        <v>57</v>
+      </c>
+      <c r="R72">
+        <v>12</v>
+      </c>
+      <c r="S72">
+        <v>7</v>
+      </c>
+      <c r="T72">
+        <v>2</v>
+      </c>
+      <c r="U72">
+        <v>1</v>
+      </c>
+      <c r="V72">
+        <v>2</v>
+      </c>
+      <c r="W72">
+        <v>16</v>
+      </c>
+      <c r="X72">
+        <v>9</v>
+      </c>
+      <c r="Y72">
+        <v>24</v>
+      </c>
+      <c r="Z72">
+        <v>2</v>
+      </c>
+      <c r="AA72">
+        <v>1</v>
+      </c>
+      <c r="AB72">
+        <v>3</v>
+      </c>
+      <c r="AC72">
+        <v>10</v>
+      </c>
+      <c r="AD72">
+        <v>2</v>
+      </c>
+      <c r="AE72">
+        <v>5</v>
+      </c>
+      <c r="AF72">
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2">
-        <v>45747</v>
+        <v>45382</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>純資産6</t>
+          <t>流動負債</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1907,14 +3594,11 @@
           <t>円</t>
         </is>
       </c>
-      <c r="D73">
-        <v>-252</v>
-      </c>
-      <c r="E73">
-        <v>-7260</v>
-      </c>
       <c r="F73">
-        <v>-385</v>
+        <v>337</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1923,7 +3607,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>純資産7</t>
+          <t>社債</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1932,22 +3616,37 @@
         </is>
       </c>
       <c r="D74">
-        <v>4855</v>
+        <v>107283</v>
       </c>
       <c r="E74">
-        <v>87421</v>
+        <v>1050</v>
       </c>
       <c r="F74">
-        <v>63651</v>
+        <v>6210</v>
+      </c>
+      <c r="G74">
+        <v>105054</v>
+      </c>
+      <c r="H74">
+        <v>95265</v>
+      </c>
+      <c r="J74">
+        <v>674</v>
+      </c>
+      <c r="S74">
+        <v>200</v>
+      </c>
+      <c r="AE74">
+        <v>200</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2">
-        <v>45747</v>
+        <v>45382</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>純資産8</t>
+          <t>社債</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1955,8 +3654,8 @@
           <t>円</t>
         </is>
       </c>
-      <c r="E75">
-        <v>-841</v>
+      <c r="F75">
+        <v>5710</v>
       </c>
     </row>
     <row r="76">
@@ -1965,7 +3664,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>純資産9</t>
+          <t>長期借入金</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1974,19 +3673,46 @@
         </is>
       </c>
       <c r="D76">
-        <v>4486</v>
+        <v>5710</v>
       </c>
       <c r="F76">
-        <v>15674</v>
+        <v>200</v>
+      </c>
+      <c r="G76">
+        <v>4251</v>
+      </c>
+      <c r="H76">
+        <v>1950</v>
+      </c>
+      <c r="L76">
+        <v>110</v>
+      </c>
+      <c r="Q76">
+        <v>207</v>
+      </c>
+      <c r="R76">
+        <v>129</v>
+      </c>
+      <c r="T76">
+        <v>546</v>
+      </c>
+      <c r="V76">
+        <v>20</v>
+      </c>
+      <c r="W76">
+        <v>13</v>
+      </c>
+      <c r="AA76">
+        <v>10</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2">
-        <v>45747</v>
+        <v>45382</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>純資産10</t>
+          <t>長期借入金</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1994,11 +3720,8 @@
           <t>円</t>
         </is>
       </c>
-      <c r="D77">
-        <v>221</v>
-      </c>
       <c r="F77">
-        <v>24902</v>
+        <v>200</v>
       </c>
     </row>
     <row r="78">
@@ -2007,7 +3730,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>純資産11</t>
+          <t>リース債務、固定負債</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2016,10 +3739,10 @@
         </is>
       </c>
       <c r="D78">
-        <v>2</v>
-      </c>
-      <c r="F78">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -2028,7 +3751,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>純資産12</t>
+          <t>長期未払法人税等</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2036,8 +3759,8 @@
           <t>円</t>
         </is>
       </c>
-      <c r="F79">
-        <v>190</v>
+      <c r="D79">
+        <v>22</v>
       </c>
     </row>
     <row r="80">
@@ -2046,16 +3769,3958 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
+          <t>繰延税金負債</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="E80">
+        <v>13</v>
+      </c>
+      <c r="G80">
+        <v>72</v>
+      </c>
+      <c r="H80">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>その他、固定負債</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="F81">
+        <v>4</v>
+      </c>
+      <c r="G81">
+        <v>11</v>
+      </c>
+      <c r="H81">
+        <v>180</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>3</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>その他、固定負債</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="F82">
+        <v>3</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>固定負債</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D83">
+        <v>113043</v>
+      </c>
+      <c r="E83">
+        <v>2778</v>
+      </c>
+      <c r="F83">
+        <v>6418</v>
+      </c>
+      <c r="G83">
+        <v>109388</v>
+      </c>
+      <c r="H83">
+        <v>97548</v>
+      </c>
+      <c r="J83">
+        <v>692</v>
+      </c>
+      <c r="K83">
+        <v>7</v>
+      </c>
+      <c r="L83">
+        <v>111</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>900</v>
+      </c>
+      <c r="Q83">
+        <v>208</v>
+      </c>
+      <c r="R83">
+        <v>132</v>
+      </c>
+      <c r="S83">
+        <v>208</v>
+      </c>
+      <c r="T83">
+        <v>546</v>
+      </c>
+      <c r="U83">
+        <v>3</v>
+      </c>
+      <c r="V83">
+        <v>37</v>
+      </c>
+      <c r="W83">
+        <v>16</v>
+      </c>
+      <c r="Y83">
+        <v>2</v>
+      </c>
+      <c r="Z83">
+        <v>12</v>
+      </c>
+      <c r="AA83">
+        <v>18</v>
+      </c>
+      <c r="AB83">
+        <v>1</v>
+      </c>
+      <c r="AC83">
+        <v>1</v>
+      </c>
+      <c r="AE83">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>固定負債</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="F84">
+        <v>5916</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>負債</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D85">
+        <v>134570</v>
+      </c>
+      <c r="E85">
+        <v>2927</v>
+      </c>
+      <c r="F85">
+        <v>7057</v>
+      </c>
+      <c r="G85">
+        <v>139665</v>
+      </c>
+      <c r="H85">
+        <v>106240</v>
+      </c>
+      <c r="I85">
+        <v>3</v>
+      </c>
+      <c r="J85">
+        <v>1146</v>
+      </c>
+      <c r="K85">
+        <v>1687</v>
+      </c>
+      <c r="L85">
+        <v>113</v>
+      </c>
+      <c r="M85">
+        <v>43</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>904</v>
+      </c>
+      <c r="Q85">
+        <v>266</v>
+      </c>
+      <c r="R85">
+        <v>145</v>
+      </c>
+      <c r="S85">
+        <v>215</v>
+      </c>
+      <c r="T85">
+        <v>548</v>
+      </c>
+      <c r="U85">
+        <v>5</v>
+      </c>
+      <c r="V85">
+        <v>39</v>
+      </c>
+      <c r="W85">
+        <v>32</v>
+      </c>
+      <c r="X85">
+        <v>9</v>
+      </c>
+      <c r="Y85">
+        <v>26</v>
+      </c>
+      <c r="Z85">
+        <v>14</v>
+      </c>
+      <c r="AA85">
+        <v>19</v>
+      </c>
+      <c r="AB85">
+        <v>4</v>
+      </c>
+      <c r="AC85">
+        <v>11</v>
+      </c>
+      <c r="AD85">
+        <v>2</v>
+      </c>
+      <c r="AE85">
+        <v>205</v>
+      </c>
+      <c r="AF85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>負債</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="F86">
+        <v>6253</v>
+      </c>
+      <c r="O86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>資本金</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D87">
+        <v>21415</v>
+      </c>
+      <c r="E87">
+        <v>506</v>
+      </c>
+      <c r="F87">
+        <v>2616</v>
+      </c>
+      <c r="G87">
+        <v>23460</v>
+      </c>
+      <c r="H87">
+        <v>22568</v>
+      </c>
+      <c r="I87">
+        <v>709</v>
+      </c>
+      <c r="J87">
+        <v>500</v>
+      </c>
+      <c r="K87">
+        <v>1248</v>
+      </c>
+      <c r="L87">
+        <v>180</v>
+      </c>
+      <c r="M87">
+        <v>1030</v>
+      </c>
+      <c r="N87">
+        <v>302</v>
+      </c>
+      <c r="O87">
+        <v>287</v>
+      </c>
+      <c r="P87">
+        <v>1175</v>
+      </c>
+      <c r="Q87">
+        <v>275</v>
+      </c>
+      <c r="R87">
+        <v>360</v>
+      </c>
+      <c r="S87">
+        <v>1501</v>
+      </c>
+      <c r="T87">
+        <v>500</v>
+      </c>
+      <c r="U87">
+        <v>100</v>
+      </c>
+      <c r="V87">
+        <v>300</v>
+      </c>
+      <c r="W87">
+        <v>600</v>
+      </c>
+      <c r="X87">
+        <v>100</v>
+      </c>
+      <c r="Y87">
+        <v>360</v>
+      </c>
+      <c r="Z87">
+        <v>200</v>
+      </c>
+      <c r="AA87">
+        <v>200</v>
+      </c>
+      <c r="AB87">
+        <v>200</v>
+      </c>
+      <c r="AC87">
+        <v>900</v>
+      </c>
+      <c r="AD87">
+        <v>200</v>
+      </c>
+      <c r="AE87">
+        <v>160</v>
+      </c>
+      <c r="AF87">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>資本金</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="F88">
+        <v>2616</v>
+      </c>
+      <c r="O88">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>資本準備金</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D89">
+        <v>21415</v>
+      </c>
+      <c r="E89">
+        <v>1479</v>
+      </c>
+      <c r="F89">
+        <v>7029</v>
+      </c>
+      <c r="G89">
+        <v>15674</v>
+      </c>
+      <c r="H89">
+        <v>11967</v>
+      </c>
+      <c r="I89">
+        <v>820</v>
+      </c>
+      <c r="J89">
+        <v>125</v>
+      </c>
+      <c r="K89">
+        <v>1018</v>
+      </c>
+      <c r="L89">
+        <v>117</v>
+      </c>
+      <c r="M89">
+        <v>405</v>
+      </c>
+      <c r="N89">
+        <v>152</v>
+      </c>
+      <c r="O89">
+        <v>272</v>
+      </c>
+      <c r="P89">
+        <v>253</v>
+      </c>
+      <c r="Q89">
+        <v>562</v>
+      </c>
+      <c r="R89">
+        <v>90</v>
+      </c>
+      <c r="S89">
+        <v>376</v>
+      </c>
+      <c r="T89">
+        <v>125</v>
+      </c>
+      <c r="U89">
+        <v>25</v>
+      </c>
+      <c r="V89">
+        <v>75</v>
+      </c>
+      <c r="W89">
+        <v>150</v>
+      </c>
+      <c r="X89">
+        <v>25</v>
+      </c>
+      <c r="Y89">
+        <v>90</v>
+      </c>
+      <c r="Z89">
+        <v>50</v>
+      </c>
+      <c r="AA89">
+        <v>50</v>
+      </c>
+      <c r="AB89">
+        <v>50</v>
+      </c>
+      <c r="AC89">
+        <v>225</v>
+      </c>
+      <c r="AD89">
+        <v>50</v>
+      </c>
+      <c r="AE89">
+        <v>40</v>
+      </c>
+      <c r="AF89">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>資本準備金</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="F90">
+        <v>7029</v>
+      </c>
+      <c r="O90">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>その他資本剰余金</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="F91">
+        <v>2046</v>
+      </c>
+      <c r="I91">
+        <v>86</v>
+      </c>
+      <c r="J91">
+        <v>2827</v>
+      </c>
+      <c r="K91">
+        <v>2753</v>
+      </c>
+      <c r="L91">
+        <v>180</v>
+      </c>
+      <c r="M91">
+        <v>145</v>
+      </c>
+      <c r="N91">
+        <v>539</v>
+      </c>
+      <c r="O91">
+        <v>609</v>
+      </c>
+      <c r="P91">
+        <v>3829</v>
+      </c>
+      <c r="Q91">
+        <v>1103</v>
+      </c>
+      <c r="R91">
+        <v>4062</v>
+      </c>
+      <c r="S91">
+        <v>6035</v>
+      </c>
+      <c r="T91">
+        <v>2968</v>
+      </c>
+      <c r="U91">
+        <v>1162</v>
+      </c>
+      <c r="V91">
+        <v>2801</v>
+      </c>
+      <c r="W91">
+        <v>3612</v>
+      </c>
+      <c r="X91">
+        <v>1822</v>
+      </c>
+      <c r="Y91">
+        <v>2564</v>
+      </c>
+      <c r="Z91">
+        <v>1145</v>
+      </c>
+      <c r="AA91">
+        <v>905</v>
+      </c>
+      <c r="AB91">
+        <v>4748</v>
+      </c>
+      <c r="AC91">
+        <v>7303</v>
+      </c>
+      <c r="AD91">
+        <v>1787</v>
+      </c>
+      <c r="AE91">
+        <v>4537</v>
+      </c>
+      <c r="AF91">
+        <v>4386</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>その他資本剰余金</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="F92">
+        <v>2243</v>
+      </c>
+      <c r="O92">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>資本剰余金</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D93">
+        <v>21415</v>
+      </c>
+      <c r="E93">
+        <v>1479</v>
+      </c>
+      <c r="F93">
+        <v>9075</v>
+      </c>
+      <c r="G93">
+        <v>15674</v>
+      </c>
+      <c r="H93">
+        <v>11967</v>
+      </c>
+      <c r="I93">
+        <v>907</v>
+      </c>
+      <c r="J93">
+        <v>2952</v>
+      </c>
+      <c r="K93">
+        <v>3770</v>
+      </c>
+      <c r="L93">
+        <v>297</v>
+      </c>
+      <c r="M93">
+        <v>550</v>
+      </c>
+      <c r="N93">
+        <v>692</v>
+      </c>
+      <c r="O93">
+        <v>881</v>
+      </c>
+      <c r="P93">
+        <v>4082</v>
+      </c>
+      <c r="Q93">
+        <v>1665</v>
+      </c>
+      <c r="R93">
+        <v>4152</v>
+      </c>
+      <c r="S93">
+        <v>6411</v>
+      </c>
+      <c r="T93">
+        <v>3093</v>
+      </c>
+      <c r="U93">
+        <v>1187</v>
+      </c>
+      <c r="V93">
+        <v>2876</v>
+      </c>
+      <c r="W93">
+        <v>3762</v>
+      </c>
+      <c r="X93">
+        <v>1847</v>
+      </c>
+      <c r="Y93">
+        <v>2654</v>
+      </c>
+      <c r="Z93">
+        <v>1195</v>
+      </c>
+      <c r="AA93">
+        <v>955</v>
+      </c>
+      <c r="AB93">
+        <v>4798</v>
+      </c>
+      <c r="AC93">
+        <v>7528</v>
+      </c>
+      <c r="AD93">
+        <v>1837</v>
+      </c>
+      <c r="AE93">
+        <v>4577</v>
+      </c>
+      <c r="AF93">
+        <v>4486</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>資本剰余金</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="F94">
+        <v>9273</v>
+      </c>
+      <c r="O94">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>別途積立金</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D95">
+        <v>1500</v>
+      </c>
+      <c r="G95">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>繰越利益剰余金</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D96">
+        <v>50351</v>
+      </c>
+      <c r="E96">
+        <v>10221</v>
+      </c>
+      <c r="F96">
+        <v>3885</v>
+      </c>
+      <c r="G96">
+        <v>24598</v>
+      </c>
+      <c r="H96">
+        <v>26568</v>
+      </c>
+      <c r="I96">
+        <v>388</v>
+      </c>
+      <c r="J96">
+        <v>201</v>
+      </c>
+      <c r="K96">
+        <v>832</v>
+      </c>
+      <c r="L96">
+        <v>48</v>
+      </c>
+      <c r="M96">
+        <v>93</v>
+      </c>
+      <c r="N96">
+        <v>46</v>
+      </c>
+      <c r="O96">
+        <v>13</v>
+      </c>
+      <c r="P96">
+        <v>1134</v>
+      </c>
+      <c r="Q96">
+        <v>113</v>
+      </c>
+      <c r="R96">
+        <v>149</v>
+      </c>
+      <c r="S96">
+        <v>1694</v>
+      </c>
+      <c r="T96">
+        <v>287</v>
+      </c>
+      <c r="U96">
+        <v>23</v>
+      </c>
+      <c r="V96">
+        <v>114</v>
+      </c>
+      <c r="W96">
+        <v>362</v>
+      </c>
+      <c r="X96">
+        <v>51</v>
+      </c>
+      <c r="Y96">
+        <v>50</v>
+      </c>
+      <c r="Z96">
+        <v>62</v>
+      </c>
+      <c r="AA96">
+        <v>26</v>
+      </c>
+      <c r="AB96">
+        <v>232</v>
+      </c>
+      <c r="AC96">
+        <v>491</v>
+      </c>
+      <c r="AD96">
+        <v>53</v>
+      </c>
+      <c r="AE96">
+        <v>187</v>
+      </c>
+      <c r="AF96">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>繰越利益剰余金</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="F97">
+        <v>3320</v>
+      </c>
+      <c r="O97">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>利益剰余金</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D98">
+        <v>51851</v>
+      </c>
+      <c r="E98">
+        <v>10221</v>
+      </c>
+      <c r="F98">
+        <v>3885</v>
+      </c>
+      <c r="G98">
+        <v>24902</v>
+      </c>
+      <c r="H98">
+        <v>26612</v>
+      </c>
+      <c r="I98">
+        <v>388</v>
+      </c>
+      <c r="J98">
+        <v>201</v>
+      </c>
+      <c r="K98">
+        <v>832</v>
+      </c>
+      <c r="L98">
+        <v>48</v>
+      </c>
+      <c r="M98">
+        <v>93</v>
+      </c>
+      <c r="N98">
+        <v>46</v>
+      </c>
+      <c r="O98">
+        <v>13</v>
+      </c>
+      <c r="P98">
+        <v>1175</v>
+      </c>
+      <c r="Q98">
+        <v>113</v>
+      </c>
+      <c r="R98">
+        <v>149</v>
+      </c>
+      <c r="S98">
+        <v>1694</v>
+      </c>
+      <c r="T98">
+        <v>287</v>
+      </c>
+      <c r="U98">
+        <v>23</v>
+      </c>
+      <c r="V98">
+        <v>114</v>
+      </c>
+      <c r="W98">
+        <v>362</v>
+      </c>
+      <c r="X98">
+        <v>51</v>
+      </c>
+      <c r="Y98">
+        <v>50</v>
+      </c>
+      <c r="Z98">
+        <v>62</v>
+      </c>
+      <c r="AA98">
+        <v>26</v>
+      </c>
+      <c r="AB98">
+        <v>232</v>
+      </c>
+      <c r="AC98">
+        <v>491</v>
+      </c>
+      <c r="AD98">
+        <v>53</v>
+      </c>
+      <c r="AE98">
+        <v>187</v>
+      </c>
+      <c r="AF98">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>利益剰余金</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="F99">
+        <v>3320</v>
+      </c>
+      <c r="O99">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>自己株式</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D100">
+        <v>-7260</v>
+      </c>
+      <c r="E100">
+        <v>-66</v>
+      </c>
+      <c r="F100">
+        <v>-364</v>
+      </c>
+      <c r="G100">
+        <v>-385</v>
+      </c>
+      <c r="H100">
+        <v>-72</v>
+      </c>
+      <c r="I100">
+        <v>-13</v>
+      </c>
+      <c r="J100">
+        <v>-281</v>
+      </c>
+      <c r="K100">
+        <v>-56</v>
+      </c>
+      <c r="L100">
+        <v>-2</v>
+      </c>
+      <c r="M100">
+        <v>-11</v>
+      </c>
+      <c r="N100">
+        <v>-4</v>
+      </c>
+      <c r="O100">
+        <v>-1</v>
+      </c>
+      <c r="P100">
+        <v>-16</v>
+      </c>
+      <c r="Q100">
+        <v>-13</v>
+      </c>
+      <c r="R100">
+        <v>-139</v>
+      </c>
+      <c r="S100">
+        <v>-17</v>
+      </c>
+      <c r="T100">
+        <v>-85</v>
+      </c>
+      <c r="U100">
+        <v>-3</v>
+      </c>
+      <c r="V100">
+        <v>-87</v>
+      </c>
+      <c r="W100">
+        <v>-81</v>
+      </c>
+      <c r="X100">
+        <v>-30</v>
+      </c>
+      <c r="Y100">
+        <v>-63</v>
+      </c>
+      <c r="Z100">
+        <v>-39</v>
+      </c>
+      <c r="AA100">
+        <v>-9</v>
+      </c>
+      <c r="AB100">
+        <v>-213</v>
+      </c>
+      <c r="AC100">
+        <v>-407</v>
+      </c>
+      <c r="AD100">
+        <v>-0</v>
+      </c>
+      <c r="AE100">
+        <v>-76</v>
+      </c>
+      <c r="AF100">
+        <v>-252</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>自己株式</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="F101">
+        <v>-236</v>
+      </c>
+      <c r="O101">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>株主資本</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D102">
+        <v>87421</v>
+      </c>
+      <c r="E102">
+        <v>12140</v>
+      </c>
+      <c r="F102">
+        <v>15212</v>
+      </c>
+      <c r="G102">
+        <v>63651</v>
+      </c>
+      <c r="H102">
+        <v>61074</v>
+      </c>
+      <c r="I102">
+        <v>1991</v>
+      </c>
+      <c r="J102">
+        <v>3372</v>
+      </c>
+      <c r="K102">
+        <v>5795</v>
+      </c>
+      <c r="L102">
+        <v>523</v>
+      </c>
+      <c r="M102">
+        <v>1662</v>
+      </c>
+      <c r="N102">
+        <v>1036</v>
+      </c>
+      <c r="O102">
+        <v>1181</v>
+      </c>
+      <c r="P102">
+        <v>6415</v>
+      </c>
+      <c r="Q102">
+        <v>2041</v>
+      </c>
+      <c r="R102">
+        <v>4522</v>
+      </c>
+      <c r="S102">
+        <v>9589</v>
+      </c>
+      <c r="T102">
+        <v>3795</v>
+      </c>
+      <c r="U102">
+        <v>1307</v>
+      </c>
+      <c r="V102">
+        <v>3203</v>
+      </c>
+      <c r="W102">
+        <v>4643</v>
+      </c>
+      <c r="X102">
+        <v>1967</v>
+      </c>
+      <c r="Y102">
+        <v>3002</v>
+      </c>
+      <c r="Z102">
+        <v>1418</v>
+      </c>
+      <c r="AA102">
+        <v>1173</v>
+      </c>
+      <c r="AB102">
+        <v>5017</v>
+      </c>
+      <c r="AC102">
+        <v>8511</v>
+      </c>
+      <c r="AD102">
+        <v>2090</v>
+      </c>
+      <c r="AE102">
+        <v>4848</v>
+      </c>
+      <c r="AF102">
+        <v>4855</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>株主資本</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="F103">
+        <v>14972</v>
+      </c>
+      <c r="O103">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>繰延ヘッジ損益</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D104">
+        <v>-841</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>評価・換算差額等</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D105">
+        <v>-841</v>
+      </c>
+      <c r="E105">
+        <v>34</v>
+      </c>
+      <c r="G105">
+        <v>190</v>
+      </c>
+      <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>建物</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="J106">
+        <v>6</v>
+      </c>
+      <c r="R106">
+        <v>99</v>
+      </c>
+      <c r="Z106">
+        <v>0</v>
+      </c>
+      <c r="AE106">
+        <v>0</v>
+      </c>
+      <c r="AF106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>未払消費税等</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="E107">
+        <v>2</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+      <c r="P107">
+        <v>0</v>
+      </c>
+      <c r="R107">
+        <v>0</v>
+      </c>
+      <c r="T107">
+        <v>0</v>
+      </c>
+      <c r="W107">
+        <v>0</v>
+      </c>
+      <c r="X107">
+        <v>1</v>
+      </c>
+      <c r="Y107">
+        <v>0</v>
+      </c>
+      <c r="Z107">
+        <v>0</v>
+      </c>
+      <c r="AB107">
+        <v>0</v>
+      </c>
+      <c r="AC107">
+        <v>0</v>
+      </c>
+      <c r="AE107">
+        <v>1</v>
+      </c>
+      <c r="AF107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>未払消費税等</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>新株予約権</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>8</v>
+      </c>
+      <c r="G109">
+        <v>8</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>5</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>2</v>
+      </c>
+      <c r="N109">
+        <v>11</v>
+      </c>
+      <c r="P109">
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <v>0</v>
+      </c>
+      <c r="W109">
+        <v>1</v>
+      </c>
+      <c r="Z109">
+        <v>0</v>
+      </c>
+      <c r="AB109">
+        <v>1</v>
+      </c>
+      <c r="AC109">
+        <v>1</v>
+      </c>
+      <c r="AD109">
+        <v>3</v>
+      </c>
+      <c r="AE109">
+        <v>1</v>
+      </c>
+      <c r="AF109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>新株予約権</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="F110">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
           <t>その他有価証券評価差額金</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>円</t>
-        </is>
-      </c>
-      <c r="F80">
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="E111">
+        <v>34</v>
+      </c>
+      <c r="G111">
         <v>190</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>仮払金</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>未収消費税等</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="J113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>投資損失引当金</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="E114">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>関係会社長期借入金</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="E115">
+        <v>1712</v>
+      </c>
+      <c r="P115">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>役員株式給付引当金、固定負債</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="E116">
+        <v>2</v>
+      </c>
+      <c r="R116">
+        <v>1</v>
+      </c>
+      <c r="T116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>有価証券</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="F117">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>有価証券</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="S118">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>株式給付引当金、固定負債</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="F119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>株式給付引当金、固定負債</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="F120">
+        <v>4</v>
+      </c>
+      <c r="W120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>その他（純額）、有形固定資産</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>前払年金費用、投資その他の資産</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="H122">
+        <v>366</v>
+      </c>
+      <c r="J122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>前受収益</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="H123">
+        <v>1</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="W123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>退職給付引当金</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="H124">
+        <v>135</v>
+      </c>
+      <c r="J124">
+        <v>11</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="Y124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>利益準備金</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="H125">
+        <v>44</v>
+      </c>
+      <c r="P125">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>その他利益剰余金</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="H126">
+        <v>26568</v>
+      </c>
+      <c r="AC126">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>未払配当金</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="O127">
+        <v>0</v>
+      </c>
+      <c r="Q127">
+        <v>1</v>
+      </c>
+      <c r="R127">
+        <v>1</v>
+      </c>
+      <c r="V127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>未払配当金</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="O128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>工具、器具及び備品</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="V129">
+        <v>0</v>
+      </c>
+      <c r="W129">
+        <v>0</v>
+      </c>
+      <c r="Z129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>リース資産、有形固定資産</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="R130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>ソフトウエア仮勘定</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="J131">
+        <v>3</v>
+      </c>
+      <c r="Q131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>社債発行費、繰延資産</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="J132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>繰延資産</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="J133">
+        <v>3</v>
+      </c>
+      <c r="O133">
+        <v>0</v>
+      </c>
+      <c r="R133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>繰延資産</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="O134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>契約負債</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="J135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>短期社債</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="K136">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>リース債務、負債の部</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="K137">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>車両運搬具（純額）</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>貯蔵品</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="O139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>貯蔵品</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="O140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>敷金</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="O141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>敷金</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="O142">
+        <v>0</v>
+      </c>
+      <c r="Q142">
+        <v>0</v>
+      </c>
+      <c r="U142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>株式交付費、繰延資産</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="O143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>株式交付費、繰延資産</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="O144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>預け金</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="Q145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>仮受金</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="Q146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>開発費、繰延資産</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="R147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>減価償却累計額、有形固定資産、一括控除</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="R148">
+        <v>-23</v>
+      </c>
+      <c r="V148">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>長期預り金</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="S149">
+        <v>7</v>
+      </c>
+      <c r="U149">
+        <v>3</v>
+      </c>
+      <c r="V149">
+        <v>11</v>
+      </c>
+      <c r="AA149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>前受金</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="T150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>株式報酬引当金、固定負債</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="V151">
+        <v>2</v>
+      </c>
+      <c r="AB151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>債務保証損失引当金</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>長期前受収益</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="W153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>その他、有形固定資産</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="Y154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>差入保証金、投資その他の資産</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="Y155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>長期未収入金</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="Y156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>減価償却累計額、建物</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="Z157">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>長期未払金</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="AA158">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>金銭の信託、流動資産</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="AC159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>役員退職慰労引当金</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="AC160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>純資産</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D161">
+        <v>86580</v>
+      </c>
+      <c r="E161">
+        <v>12175</v>
+      </c>
+      <c r="F161">
+        <v>15220</v>
+      </c>
+      <c r="G161">
+        <v>63849</v>
+      </c>
+      <c r="H161">
+        <v>61074</v>
+      </c>
+      <c r="I161">
+        <v>1997</v>
+      </c>
+      <c r="J161">
+        <v>3376</v>
+      </c>
+      <c r="K161">
+        <v>5795</v>
+      </c>
+      <c r="L161">
+        <v>523</v>
+      </c>
+      <c r="M161">
+        <v>1664</v>
+      </c>
+      <c r="N161">
+        <v>1047</v>
+      </c>
+      <c r="O161">
+        <v>1181</v>
+      </c>
+      <c r="P161">
+        <v>6416</v>
+      </c>
+      <c r="Q161">
+        <v>2041</v>
+      </c>
+      <c r="R161">
+        <v>4522</v>
+      </c>
+      <c r="S161">
+        <v>9589</v>
+      </c>
+      <c r="T161">
+        <v>3795</v>
+      </c>
+      <c r="U161">
+        <v>1307</v>
+      </c>
+      <c r="V161">
+        <v>3203</v>
+      </c>
+      <c r="W161">
+        <v>4645</v>
+      </c>
+      <c r="X161">
+        <v>1967</v>
+      </c>
+      <c r="Y161">
+        <v>3002</v>
+      </c>
+      <c r="Z161">
+        <v>1418</v>
+      </c>
+      <c r="AA161">
+        <v>1173</v>
+      </c>
+      <c r="AB161">
+        <v>5018</v>
+      </c>
+      <c r="AC161">
+        <v>8512</v>
+      </c>
+      <c r="AD161">
+        <v>2093</v>
+      </c>
+      <c r="AE161">
+        <v>4849</v>
+      </c>
+      <c r="AF161">
+        <v>4857</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>純資産</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="F162">
+        <v>14981</v>
+      </c>
+      <c r="O162">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>負債純資産</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D163">
+        <v>221150</v>
+      </c>
+      <c r="E163">
+        <v>15102</v>
+      </c>
+      <c r="F163">
+        <v>22277</v>
+      </c>
+      <c r="G163">
+        <v>203514</v>
+      </c>
+      <c r="H163">
+        <v>167314</v>
+      </c>
+      <c r="I163">
+        <v>1999</v>
+      </c>
+      <c r="J163">
+        <v>4522</v>
+      </c>
+      <c r="K163">
+        <v>7482</v>
+      </c>
+      <c r="L163">
+        <v>637</v>
+      </c>
+      <c r="M163">
+        <v>1707</v>
+      </c>
+      <c r="N163">
+        <v>1049</v>
+      </c>
+      <c r="O163">
+        <v>1181</v>
+      </c>
+      <c r="P163">
+        <v>7319</v>
+      </c>
+      <c r="Q163">
+        <v>2306</v>
+      </c>
+      <c r="R163">
+        <v>4666</v>
+      </c>
+      <c r="S163">
+        <v>9804</v>
+      </c>
+      <c r="T163">
+        <v>4343</v>
+      </c>
+      <c r="U163">
+        <v>1312</v>
+      </c>
+      <c r="V163">
+        <v>3242</v>
+      </c>
+      <c r="W163">
+        <v>4677</v>
+      </c>
+      <c r="X163">
+        <v>1976</v>
+      </c>
+      <c r="Y163">
+        <v>3028</v>
+      </c>
+      <c r="Z163">
+        <v>1432</v>
+      </c>
+      <c r="AA163">
+        <v>1192</v>
+      </c>
+      <c r="AB163">
+        <v>5022</v>
+      </c>
+      <c r="AC163">
+        <v>8523</v>
+      </c>
+      <c r="AD163">
+        <v>2095</v>
+      </c>
+      <c r="AE163">
+        <v>5054</v>
+      </c>
+      <c r="AF163">
+        <v>4859</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>負債純資産</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="F164">
+        <v>21234</v>
+      </c>
+      <c r="O164">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>純資産1</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D165">
+        <v>21415</v>
+      </c>
+      <c r="E165">
+        <v>506</v>
+      </c>
+      <c r="F165">
+        <v>2616</v>
+      </c>
+      <c r="G165">
+        <v>23460</v>
+      </c>
+      <c r="H165">
+        <v>22568</v>
+      </c>
+      <c r="I165">
+        <v>709</v>
+      </c>
+      <c r="J165">
+        <v>500</v>
+      </c>
+      <c r="K165">
+        <v>1248</v>
+      </c>
+      <c r="L165">
+        <v>180</v>
+      </c>
+      <c r="M165">
+        <v>1030</v>
+      </c>
+      <c r="N165">
+        <v>302</v>
+      </c>
+      <c r="O165">
+        <v>287</v>
+      </c>
+      <c r="P165">
+        <v>1175</v>
+      </c>
+      <c r="Q165">
+        <v>275</v>
+      </c>
+      <c r="R165">
+        <v>360</v>
+      </c>
+      <c r="S165">
+        <v>1501</v>
+      </c>
+      <c r="T165">
+        <v>500</v>
+      </c>
+      <c r="U165">
+        <v>100</v>
+      </c>
+      <c r="V165">
+        <v>300</v>
+      </c>
+      <c r="W165">
+        <v>600</v>
+      </c>
+      <c r="X165">
+        <v>100</v>
+      </c>
+      <c r="Y165">
+        <v>360</v>
+      </c>
+      <c r="Z165">
+        <v>200</v>
+      </c>
+      <c r="AA165">
+        <v>200</v>
+      </c>
+      <c r="AB165">
+        <v>200</v>
+      </c>
+      <c r="AC165">
+        <v>900</v>
+      </c>
+      <c r="AD165">
+        <v>200</v>
+      </c>
+      <c r="AE165">
+        <v>160</v>
+      </c>
+      <c r="AF165">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>純資産1</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="F166">
+        <v>2616</v>
+      </c>
+      <c r="O166">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>純資産2</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D167">
+        <v>21415</v>
+      </c>
+      <c r="E167">
+        <v>1479</v>
+      </c>
+      <c r="F167">
+        <v>7029</v>
+      </c>
+      <c r="G167">
+        <v>15674</v>
+      </c>
+      <c r="H167">
+        <v>11967</v>
+      </c>
+      <c r="I167">
+        <v>820</v>
+      </c>
+      <c r="J167">
+        <v>125</v>
+      </c>
+      <c r="K167">
+        <v>1018</v>
+      </c>
+      <c r="L167">
+        <v>117</v>
+      </c>
+      <c r="M167">
+        <v>405</v>
+      </c>
+      <c r="N167">
+        <v>152</v>
+      </c>
+      <c r="O167">
+        <v>272</v>
+      </c>
+      <c r="P167">
+        <v>253</v>
+      </c>
+      <c r="Q167">
+        <v>562</v>
+      </c>
+      <c r="R167">
+        <v>90</v>
+      </c>
+      <c r="S167">
+        <v>376</v>
+      </c>
+      <c r="T167">
+        <v>125</v>
+      </c>
+      <c r="U167">
+        <v>25</v>
+      </c>
+      <c r="V167">
+        <v>75</v>
+      </c>
+      <c r="W167">
+        <v>150</v>
+      </c>
+      <c r="X167">
+        <v>25</v>
+      </c>
+      <c r="Y167">
+        <v>90</v>
+      </c>
+      <c r="Z167">
+        <v>50</v>
+      </c>
+      <c r="AA167">
+        <v>50</v>
+      </c>
+      <c r="AB167">
+        <v>50</v>
+      </c>
+      <c r="AC167">
+        <v>225</v>
+      </c>
+      <c r="AD167">
+        <v>50</v>
+      </c>
+      <c r="AE167">
+        <v>40</v>
+      </c>
+      <c r="AF167">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>純資産2</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="F168">
+        <v>7029</v>
+      </c>
+      <c r="O168">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>純資産3</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="F169">
+        <v>2046</v>
+      </c>
+      <c r="I169">
+        <v>86</v>
+      </c>
+      <c r="J169">
+        <v>2827</v>
+      </c>
+      <c r="K169">
+        <v>2753</v>
+      </c>
+      <c r="L169">
+        <v>180</v>
+      </c>
+      <c r="M169">
+        <v>145</v>
+      </c>
+      <c r="N169">
+        <v>539</v>
+      </c>
+      <c r="O169">
+        <v>609</v>
+      </c>
+      <c r="P169">
+        <v>3829</v>
+      </c>
+      <c r="Q169">
+        <v>1103</v>
+      </c>
+      <c r="R169">
+        <v>4062</v>
+      </c>
+      <c r="S169">
+        <v>6035</v>
+      </c>
+      <c r="T169">
+        <v>2968</v>
+      </c>
+      <c r="U169">
+        <v>1162</v>
+      </c>
+      <c r="V169">
+        <v>2801</v>
+      </c>
+      <c r="W169">
+        <v>3612</v>
+      </c>
+      <c r="X169">
+        <v>1822</v>
+      </c>
+      <c r="Y169">
+        <v>2564</v>
+      </c>
+      <c r="Z169">
+        <v>1145</v>
+      </c>
+      <c r="AA169">
+        <v>905</v>
+      </c>
+      <c r="AB169">
+        <v>4748</v>
+      </c>
+      <c r="AC169">
+        <v>7303</v>
+      </c>
+      <c r="AD169">
+        <v>1787</v>
+      </c>
+      <c r="AE169">
+        <v>4537</v>
+      </c>
+      <c r="AF169">
+        <v>4386</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>純資産3</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="F170">
+        <v>2243</v>
+      </c>
+      <c r="O170">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>純資産4</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D171">
+        <v>1500</v>
+      </c>
+      <c r="G171">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>純資産5</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D172">
+        <v>50351</v>
+      </c>
+      <c r="E172">
+        <v>10221</v>
+      </c>
+      <c r="F172">
+        <v>3885</v>
+      </c>
+      <c r="G172">
+        <v>24598</v>
+      </c>
+      <c r="H172">
+        <v>26568</v>
+      </c>
+      <c r="I172">
+        <v>388</v>
+      </c>
+      <c r="J172">
+        <v>201</v>
+      </c>
+      <c r="K172">
+        <v>832</v>
+      </c>
+      <c r="L172">
+        <v>48</v>
+      </c>
+      <c r="M172">
+        <v>93</v>
+      </c>
+      <c r="N172">
+        <v>46</v>
+      </c>
+      <c r="O172">
+        <v>13</v>
+      </c>
+      <c r="P172">
+        <v>1134</v>
+      </c>
+      <c r="Q172">
+        <v>113</v>
+      </c>
+      <c r="R172">
+        <v>149</v>
+      </c>
+      <c r="S172">
+        <v>1694</v>
+      </c>
+      <c r="T172">
+        <v>287</v>
+      </c>
+      <c r="U172">
+        <v>23</v>
+      </c>
+      <c r="V172">
+        <v>114</v>
+      </c>
+      <c r="W172">
+        <v>362</v>
+      </c>
+      <c r="X172">
+        <v>51</v>
+      </c>
+      <c r="Y172">
+        <v>50</v>
+      </c>
+      <c r="Z172">
+        <v>62</v>
+      </c>
+      <c r="AA172">
+        <v>26</v>
+      </c>
+      <c r="AB172">
+        <v>232</v>
+      </c>
+      <c r="AC172">
+        <v>491</v>
+      </c>
+      <c r="AD172">
+        <v>53</v>
+      </c>
+      <c r="AE172">
+        <v>187</v>
+      </c>
+      <c r="AF172">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>純資産5</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="F173">
+        <v>3320</v>
+      </c>
+      <c r="O173">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>純資産6</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D174">
+        <v>-7260</v>
+      </c>
+      <c r="E174">
+        <v>-66</v>
+      </c>
+      <c r="F174">
+        <v>-364</v>
+      </c>
+      <c r="G174">
+        <v>-385</v>
+      </c>
+      <c r="H174">
+        <v>-72</v>
+      </c>
+      <c r="I174">
+        <v>-13</v>
+      </c>
+      <c r="J174">
+        <v>-281</v>
+      </c>
+      <c r="K174">
+        <v>-56</v>
+      </c>
+      <c r="L174">
+        <v>-2</v>
+      </c>
+      <c r="M174">
+        <v>-11</v>
+      </c>
+      <c r="N174">
+        <v>-4</v>
+      </c>
+      <c r="O174">
+        <v>-1</v>
+      </c>
+      <c r="P174">
+        <v>-16</v>
+      </c>
+      <c r="Q174">
+        <v>-13</v>
+      </c>
+      <c r="R174">
+        <v>-139</v>
+      </c>
+      <c r="S174">
+        <v>-17</v>
+      </c>
+      <c r="T174">
+        <v>-85</v>
+      </c>
+      <c r="U174">
+        <v>-3</v>
+      </c>
+      <c r="V174">
+        <v>-87</v>
+      </c>
+      <c r="W174">
+        <v>-81</v>
+      </c>
+      <c r="X174">
+        <v>-30</v>
+      </c>
+      <c r="Y174">
+        <v>-63</v>
+      </c>
+      <c r="Z174">
+        <v>-39</v>
+      </c>
+      <c r="AA174">
+        <v>-9</v>
+      </c>
+      <c r="AB174">
+        <v>-213</v>
+      </c>
+      <c r="AC174">
+        <v>-407</v>
+      </c>
+      <c r="AD174">
+        <v>-0</v>
+      </c>
+      <c r="AE174">
+        <v>-76</v>
+      </c>
+      <c r="AF174">
+        <v>-252</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>純資産6</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="F175">
+        <v>-236</v>
+      </c>
+      <c r="O175">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>純資産7</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D176">
+        <v>87421</v>
+      </c>
+      <c r="E176">
+        <v>12140</v>
+      </c>
+      <c r="F176">
+        <v>15212</v>
+      </c>
+      <c r="G176">
+        <v>63651</v>
+      </c>
+      <c r="H176">
+        <v>61074</v>
+      </c>
+      <c r="I176">
+        <v>1991</v>
+      </c>
+      <c r="J176">
+        <v>3372</v>
+      </c>
+      <c r="K176">
+        <v>5795</v>
+      </c>
+      <c r="L176">
+        <v>523</v>
+      </c>
+      <c r="M176">
+        <v>1662</v>
+      </c>
+      <c r="N176">
+        <v>1036</v>
+      </c>
+      <c r="O176">
+        <v>1181</v>
+      </c>
+      <c r="P176">
+        <v>6415</v>
+      </c>
+      <c r="Q176">
+        <v>2041</v>
+      </c>
+      <c r="R176">
+        <v>4522</v>
+      </c>
+      <c r="S176">
+        <v>9589</v>
+      </c>
+      <c r="T176">
+        <v>3795</v>
+      </c>
+      <c r="U176">
+        <v>1307</v>
+      </c>
+      <c r="V176">
+        <v>3203</v>
+      </c>
+      <c r="W176">
+        <v>4643</v>
+      </c>
+      <c r="X176">
+        <v>1967</v>
+      </c>
+      <c r="Y176">
+        <v>3002</v>
+      </c>
+      <c r="Z176">
+        <v>1418</v>
+      </c>
+      <c r="AA176">
+        <v>1173</v>
+      </c>
+      <c r="AB176">
+        <v>5017</v>
+      </c>
+      <c r="AC176">
+        <v>8511</v>
+      </c>
+      <c r="AD176">
+        <v>2090</v>
+      </c>
+      <c r="AE176">
+        <v>4848</v>
+      </c>
+      <c r="AF176">
+        <v>4855</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>純資産7</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="F177">
+        <v>14972</v>
+      </c>
+      <c r="O177">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>純資産8</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="D178">
+        <v>-841</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>純資産9</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="E179">
+        <v>1479</v>
+      </c>
+      <c r="F179">
+        <v>9075</v>
+      </c>
+      <c r="G179">
+        <v>15674</v>
+      </c>
+      <c r="H179">
+        <v>11967</v>
+      </c>
+      <c r="I179">
+        <v>907</v>
+      </c>
+      <c r="J179">
+        <v>2952</v>
+      </c>
+      <c r="K179">
+        <v>3770</v>
+      </c>
+      <c r="L179">
+        <v>297</v>
+      </c>
+      <c r="M179">
+        <v>550</v>
+      </c>
+      <c r="N179">
+        <v>692</v>
+      </c>
+      <c r="O179">
+        <v>881</v>
+      </c>
+      <c r="P179">
+        <v>4082</v>
+      </c>
+      <c r="Q179">
+        <v>1665</v>
+      </c>
+      <c r="R179">
+        <v>4152</v>
+      </c>
+      <c r="S179">
+        <v>6411</v>
+      </c>
+      <c r="T179">
+        <v>3093</v>
+      </c>
+      <c r="U179">
+        <v>1187</v>
+      </c>
+      <c r="V179">
+        <v>2876</v>
+      </c>
+      <c r="W179">
+        <v>3762</v>
+      </c>
+      <c r="X179">
+        <v>1847</v>
+      </c>
+      <c r="Y179">
+        <v>2654</v>
+      </c>
+      <c r="Z179">
+        <v>1195</v>
+      </c>
+      <c r="AA179">
+        <v>955</v>
+      </c>
+      <c r="AB179">
+        <v>4798</v>
+      </c>
+      <c r="AC179">
+        <v>7528</v>
+      </c>
+      <c r="AD179">
+        <v>1837</v>
+      </c>
+      <c r="AE179">
+        <v>4577</v>
+      </c>
+      <c r="AF179">
+        <v>4486</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>純資産9</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="F180">
+        <v>9273</v>
+      </c>
+      <c r="O180">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>純資産10</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="F181">
+        <v>3320</v>
+      </c>
+      <c r="O181">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>純資産10</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="F182">
+        <v>3885</v>
+      </c>
+      <c r="G182">
+        <v>24902</v>
+      </c>
+      <c r="H182">
+        <v>26612</v>
+      </c>
+      <c r="I182">
+        <v>388</v>
+      </c>
+      <c r="J182">
+        <v>201</v>
+      </c>
+      <c r="K182">
+        <v>832</v>
+      </c>
+      <c r="L182">
+        <v>48</v>
+      </c>
+      <c r="M182">
+        <v>93</v>
+      </c>
+      <c r="N182">
+        <v>46</v>
+      </c>
+      <c r="O182">
+        <v>13</v>
+      </c>
+      <c r="P182">
+        <v>1175</v>
+      </c>
+      <c r="Q182">
+        <v>113</v>
+      </c>
+      <c r="R182">
+        <v>149</v>
+      </c>
+      <c r="S182">
+        <v>1694</v>
+      </c>
+      <c r="T182">
+        <v>287</v>
+      </c>
+      <c r="U182">
+        <v>23</v>
+      </c>
+      <c r="V182">
+        <v>114</v>
+      </c>
+      <c r="W182">
+        <v>362</v>
+      </c>
+      <c r="X182">
+        <v>51</v>
+      </c>
+      <c r="Y182">
+        <v>50</v>
+      </c>
+      <c r="Z182">
+        <v>62</v>
+      </c>
+      <c r="AA182">
+        <v>26</v>
+      </c>
+      <c r="AB182">
+        <v>232</v>
+      </c>
+      <c r="AC182">
+        <v>491</v>
+      </c>
+      <c r="AD182">
+        <v>53</v>
+      </c>
+      <c r="AE182">
+        <v>187</v>
+      </c>
+      <c r="AF182">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>純資産11</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="E183">
+        <v>1</v>
+      </c>
+      <c r="F183">
+        <v>8</v>
+      </c>
+      <c r="G183">
+        <v>8</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <v>5</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="M183">
+        <v>2</v>
+      </c>
+      <c r="N183">
+        <v>11</v>
+      </c>
+      <c r="P183">
+        <v>0</v>
+      </c>
+      <c r="Q183">
+        <v>0</v>
+      </c>
+      <c r="W183">
+        <v>1</v>
+      </c>
+      <c r="Z183">
+        <v>0</v>
+      </c>
+      <c r="AB183">
+        <v>1</v>
+      </c>
+      <c r="AC183">
+        <v>1</v>
+      </c>
+      <c r="AD183">
+        <v>3</v>
+      </c>
+      <c r="AE183">
+        <v>1</v>
+      </c>
+      <c r="AF183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>純資産11</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="F184">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>純資産12</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="E185">
+        <v>34</v>
+      </c>
+      <c r="G185">
+        <v>190</v>
+      </c>
+      <c r="H185">
+        <v>1</v>
+      </c>
+      <c r="J185">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>純資産13</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="E186">
+        <v>34</v>
+      </c>
+      <c r="J186">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>純資産14</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>円</t>
+        </is>
+      </c>
+      <c r="H187">
+        <v>44</v>
+      </c>
+      <c r="P187">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
